--- a/Test Data/Gallery_Ethernet_AttachedFunctionality_P_Panels.xlsx
+++ b/Test Data/Gallery_Ethernet_AttachedFunctionality_P_Panels.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FF2D21-A6FE-4002-9B83-DB5976204D8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27DEF97-9FF9-45BE-B0FE-57E3FC3F8E82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
     <sheet name="Belgium" sheetId="8" r:id="rId2"/>
     <sheet name="Czech" sheetId="9" r:id="rId3"/>
+    <sheet name="Swiss" sheetId="10" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="25">
   <si>
     <t>Wg</t>
   </si>
@@ -104,6 +105,12 @@
   </si>
   <si>
     <t>NGC-3475/T1762</t>
+  </si>
+  <si>
+    <t>Switzerland Market</t>
+  </si>
+  <si>
+    <t>NGC-3476/T2646</t>
   </si>
 </sst>
 </file>
@@ -771,8 +778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18F4C605-A051-4E3C-9D39-22121CB08E6A}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -887,4 +894,126 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB8FF720-D0C4-4564-A128-C868B5BB019B}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5546875" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Ethernet_AttachedFunctionality_P_Panels.xlsx
+++ b/Test Data/Gallery_Ethernet_AttachedFunctionality_P_Panels.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27DEF97-9FF9-45BE-B0FE-57E3FC3F8E82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0347D2BA-4767-4E12-A20C-5A2BC8F3ED39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
     <sheet name="Belgium" sheetId="8" r:id="rId2"/>
     <sheet name="Czech" sheetId="9" r:id="rId3"/>
     <sheet name="Swiss" sheetId="10" r:id="rId4"/>
+    <sheet name="Portugal" sheetId="11" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="27">
   <si>
     <t>Wg</t>
   </si>
@@ -111,6 +112,12 @@
   </si>
   <si>
     <t>NGC-3476/T2646</t>
+  </si>
+  <si>
+    <t>NGC-3479/T3493</t>
+  </si>
+  <si>
+    <t>Portugal Market</t>
   </si>
 </sst>
 </file>
@@ -535,7 +542,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A15"/>
+      <selection sqref="A1:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -900,7 +907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB8FF720-D0C4-4564-A128-C868B5BB019B}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
@@ -1016,4 +1023,126 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A94F5E97-6905-48EF-8B45-42BACBBFB829}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Ethernet_AttachedFunctionality_P_Panels.xlsx
+++ b/Test Data/Gallery_Ethernet_AttachedFunctionality_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0347D2BA-4767-4E12-A20C-5A2BC8F3ED39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49027B66-FEF6-4711-AEEE-587947994521}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Czech" sheetId="9" r:id="rId3"/>
     <sheet name="Swiss" sheetId="10" r:id="rId4"/>
     <sheet name="Portugal" sheetId="11" r:id="rId5"/>
+    <sheet name="Slovakia" sheetId="12" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="29">
   <si>
     <t>Wg</t>
   </si>
@@ -118,6 +119,12 @@
   </si>
   <si>
     <t>Portugal Market</t>
+  </si>
+  <si>
+    <t>Slovakia Market</t>
+  </si>
+  <si>
+    <t>NGC-2930/T3174</t>
   </si>
 </sst>
 </file>
@@ -1029,8 +1036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A94F5E97-6905-48EF-8B45-42BACBBFB829}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1071,12 +1078,134 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>25</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F56FC69-D27E-42C0-9D8C-B5EFD01D3311}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">

--- a/Test Data/Gallery_Ethernet_AttachedFunctionality_P_Panels.xlsx
+++ b/Test Data/Gallery_Ethernet_AttachedFunctionality_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49027B66-FEF6-4711-AEEE-587947994521}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5738F16-F403-4AA0-85B7-9FA4A7DA033F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Swiss" sheetId="10" r:id="rId4"/>
     <sheet name="Portugal" sheetId="11" r:id="rId5"/>
     <sheet name="Slovakia" sheetId="12" r:id="rId6"/>
+    <sheet name="Italy" sheetId="13" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="31">
   <si>
     <t>Wg</t>
   </si>
@@ -125,6 +126,12 @@
   </si>
   <si>
     <t>NGC-2930/T3174</t>
+  </si>
+  <si>
+    <t>NGC-3145/T2237</t>
+  </si>
+  <si>
+    <t>Italy Market</t>
   </si>
 </sst>
 </file>
@@ -1158,8 +1165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F56FC69-D27E-42C0-9D8C-B5EFD01D3311}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1274,4 +1281,126 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F490F5-CFDB-4DC5-AC11-E94014B7A5FB}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Ethernet_AttachedFunctionality_P_Panels.xlsx
+++ b/Test Data/Gallery_Ethernet_AttachedFunctionality_P_Panels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5738F16-F403-4AA0-85B7-9FA4A7DA033F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6BA076-7284-45D4-8DDA-BC915F0483C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Portugal" sheetId="11" r:id="rId5"/>
     <sheet name="Slovakia" sheetId="12" r:id="rId6"/>
     <sheet name="Italy" sheetId="13" r:id="rId7"/>
+    <sheet name="Spain" sheetId="14" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="36">
   <si>
     <t>Wg</t>
   </si>
@@ -132,6 +133,21 @@
   </si>
   <si>
     <t>Italy Market</t>
+  </si>
+  <si>
+    <t>PZ4DS(Dect/Fault)</t>
+  </si>
+  <si>
+    <t>Three PZ4DS(Dect/Fault)</t>
+  </si>
+  <si>
+    <t>Two PZ4DS(Dect/Fault)</t>
+  </si>
+  <si>
+    <t>Spain Market</t>
+  </si>
+  <si>
+    <t>NGC-3103/T2048</t>
   </si>
 </sst>
 </file>
@@ -1287,8 +1303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F490F5-CFDB-4DC5-AC11-E94014B7A5FB}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1403,4 +1419,141 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD64D44-39A8-481F-8D0A-B9E9683969A1}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Ethernet_AttachedFunctionality_P_Panels.xlsx
+++ b/Test Data/Gallery_Ethernet_AttachedFunctionality_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6BA076-7284-45D4-8DDA-BC915F0483C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D74879-0A02-4169-B0A0-CA51007F655E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Slovakia" sheetId="12" r:id="rId6"/>
     <sheet name="Italy" sheetId="13" r:id="rId7"/>
     <sheet name="Spain" sheetId="14" r:id="rId8"/>
+    <sheet name="Turkey" sheetId="15" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="38">
   <si>
     <t>Wg</t>
   </si>
@@ -148,6 +149,12 @@
   </si>
   <si>
     <t>NGC-3103/T2048</t>
+  </si>
+  <si>
+    <t>Turkey Market</t>
+  </si>
+  <si>
+    <t>NGC-3191/T3307</t>
   </si>
 </sst>
 </file>
@@ -1425,8 +1432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD64D44-39A8-481F-8D0A-B9E9683969A1}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1556,4 +1563,140 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73499B17-0973-409A-841D-C1D6D33E86A2}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Ethernet_AttachedFunctionality_P_Panels.xlsx
+++ b/Test Data/Gallery_Ethernet_AttachedFunctionality_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D74879-0A02-4169-B0A0-CA51007F655E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649E6C7C-5A2A-4EBB-80A5-967C7902139E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Italy" sheetId="13" r:id="rId7"/>
     <sheet name="Spain" sheetId="14" r:id="rId8"/>
     <sheet name="Turkey" sheetId="15" r:id="rId9"/>
+    <sheet name="Croatia" sheetId="16" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="40">
   <si>
     <t>Wg</t>
   </si>
@@ -155,6 +156,12 @@
   </si>
   <si>
     <t>NGC-3191/T3307</t>
+  </si>
+  <si>
+    <t>Croatia Market</t>
+  </si>
+  <si>
+    <t>NGC-3139/T2477</t>
   </si>
 </sst>
 </file>
@@ -582,15 +589,15 @@
       <selection sqref="A1:D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.90625" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" customWidth="1"/>
+    <col min="4" max="4" width="22.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -598,7 +605,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -610,7 +617,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -620,7 +627,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -632,57 +639,193 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87BE9A24-18A6-4C46-BFFB-1829A888AB5D}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -704,15 +847,15 @@
       <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.90625" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" customWidth="1"/>
+    <col min="4" max="4" width="22.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -720,7 +863,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -732,7 +875,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -742,7 +885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -754,56 +897,56 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
@@ -826,15 +969,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.5546875" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
-    <col min="4" max="4" width="22.5546875" customWidth="1"/>
+    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.54296875" customWidth="1"/>
+    <col min="3" max="3" width="18.36328125" customWidth="1"/>
+    <col min="4" max="4" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -842,7 +985,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -854,7 +997,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -864,7 +1007,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,56 +1019,56 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
@@ -948,15 +1091,15 @@
       <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.5546875" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
-    <col min="4" max="4" width="22.5546875" customWidth="1"/>
+    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.54296875" customWidth="1"/>
+    <col min="3" max="3" width="18.36328125" customWidth="1"/>
+    <col min="4" max="4" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -964,7 +1107,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -976,7 +1119,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -986,7 +1129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -998,56 +1141,56 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
@@ -1070,15 +1213,15 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="25.6328125" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" customWidth="1"/>
+    <col min="3" max="3" width="11.90625" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1086,7 +1229,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1098,7 +1241,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1108,7 +1251,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1120,56 +1263,56 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
@@ -1192,15 +1335,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="25.6328125" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" customWidth="1"/>
+    <col min="3" max="3" width="11.90625" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1208,7 +1351,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1220,7 +1363,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1230,7 +1373,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1242,56 +1385,56 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
@@ -1314,15 +1457,15 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="25.6328125" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" customWidth="1"/>
+    <col min="3" max="3" width="11.90625" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1330,7 +1473,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1342,7 +1485,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1352,7 +1495,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1364,56 +1507,56 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
@@ -1436,15 +1579,15 @@
       <selection sqref="A1:D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.90625" customWidth="1"/>
+    <col min="4" max="4" width="14.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1452,7 +1595,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1464,7 +1607,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1474,7 +1617,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1486,71 +1629,71 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>10</v>
       </c>
@@ -1569,18 +1712,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73499B17-0973-409A-841D-C1D6D33E86A2}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" customWidth="1"/>
+    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1588,7 +1731,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1600,7 +1743,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1610,7 +1753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1622,71 +1765,71 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>10</v>
       </c>

--- a/Test Data/Gallery_Ethernet_AttachedFunctionality_P_Panels.xlsx
+++ b/Test Data/Gallery_Ethernet_AttachedFunctionality_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649E6C7C-5A2A-4EBB-80A5-967C7902139E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8F30FF-0D09-48DC-BDDD-A313A38F5570}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Spain" sheetId="14" r:id="rId8"/>
     <sheet name="Turkey" sheetId="15" r:id="rId9"/>
     <sheet name="Croatia" sheetId="16" r:id="rId10"/>
+    <sheet name="Greece" sheetId="17" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="42">
   <si>
     <t>Wg</t>
   </si>
@@ -162,6 +163,12 @@
   </si>
   <si>
     <t>NGC-3139/T2477</t>
+  </si>
+  <si>
+    <t>NGC-4119/T3202</t>
+  </si>
+  <si>
+    <t>Greece Market</t>
   </si>
 </sst>
 </file>
@@ -589,15 +596,15 @@
       <selection sqref="A1:D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.90625" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" customWidth="1"/>
-    <col min="4" max="4" width="22.81640625" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -605,7 +612,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -617,7 +624,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -627,7 +634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -639,56 +646,56 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
@@ -707,18 +714,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87BE9A24-18A6-4C46-BFFB-1829A888AB5D}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.453125" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -726,7 +733,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -738,7 +745,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -748,7 +755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -760,71 +767,207 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FFCF5E8-D28A-4184-9F06-CB00DBE36AEB}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>10</v>
       </c>
@@ -847,15 +990,15 @@
       <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.90625" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" customWidth="1"/>
-    <col min="4" max="4" width="22.81640625" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -863,7 +1006,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -875,7 +1018,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -885,7 +1028,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -897,56 +1040,56 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
@@ -969,15 +1112,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.54296875" customWidth="1"/>
-    <col min="3" max="3" width="18.36328125" customWidth="1"/>
-    <col min="4" max="4" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5546875" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -985,7 +1128,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -997,7 +1140,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1007,7 +1150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1019,56 +1162,56 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
@@ -1091,15 +1234,15 @@
       <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.54296875" customWidth="1"/>
-    <col min="3" max="3" width="18.36328125" customWidth="1"/>
-    <col min="4" max="4" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5546875" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1107,7 +1250,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1119,7 +1262,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1129,7 +1272,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1141,56 +1284,56 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
@@ -1213,15 +1356,15 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.6328125" customWidth="1"/>
-    <col min="2" max="2" width="15.81640625" customWidth="1"/>
-    <col min="3" max="3" width="11.90625" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1229,7 +1372,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1241,7 +1384,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1251,7 +1394,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1263,56 +1406,56 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
@@ -1335,15 +1478,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.6328125" customWidth="1"/>
-    <col min="2" max="2" width="15.81640625" customWidth="1"/>
-    <col min="3" max="3" width="11.90625" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1351,7 +1494,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1363,7 +1506,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1373,7 +1516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1385,56 +1528,56 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
@@ -1457,15 +1600,15 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.6328125" customWidth="1"/>
-    <col min="2" max="2" width="15.81640625" customWidth="1"/>
-    <col min="3" max="3" width="11.90625" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1473,7 +1616,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1485,7 +1628,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1495,7 +1638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1507,56 +1650,56 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
@@ -1579,15 +1722,15 @@
       <selection sqref="A1:D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.90625" customWidth="1"/>
-    <col min="4" max="4" width="14.6328125" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1595,7 +1738,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1607,7 +1750,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1617,7 +1760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1629,71 +1772,71 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>10</v>
       </c>
@@ -1716,14 +1859,14 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.453125" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1731,7 +1874,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1743,7 +1886,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1753,7 +1896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1765,71 +1908,71 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>10</v>
       </c>

--- a/Test Data/Gallery_Ethernet_AttachedFunctionality_P_Panels.xlsx
+++ b/Test Data/Gallery_Ethernet_AttachedFunctionality_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8F30FF-0D09-48DC-BDDD-A313A38F5570}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C742E01-9A9F-4BCA-878A-408D3FE9469D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="13" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -24,6 +24,9 @@
     <sheet name="Turkey" sheetId="15" r:id="rId9"/>
     <sheet name="Croatia" sheetId="16" r:id="rId10"/>
     <sheet name="Greece" sheetId="17" r:id="rId11"/>
+    <sheet name="Netherlands" sheetId="18" r:id="rId12"/>
+    <sheet name="Austria" sheetId="19" r:id="rId13"/>
+    <sheet name="Denmark" sheetId="20" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="48">
   <si>
     <t>Wg</t>
   </si>
@@ -169,6 +172,24 @@
   </si>
   <si>
     <t>Greece Market</t>
+  </si>
+  <si>
+    <t>Netherlands Market</t>
+  </si>
+  <si>
+    <t>NGC-3144/T2192</t>
+  </si>
+  <si>
+    <t>Austria Market</t>
+  </si>
+  <si>
+    <t>NGC-3817/T2299</t>
+  </si>
+  <si>
+    <t>Denmark Market</t>
+  </si>
+  <si>
+    <t>NGC-2913/T2779</t>
   </si>
 </sst>
 </file>
@@ -850,7 +871,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FFCF5E8-D28A-4184-9F06-CB00DBE36AEB}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -960,6 +981,417 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DAB891F-ED4C-454D-973D-EDCE7F2F1BB0}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0560D32B-6ADB-419F-82F1-81644C93D658}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605D4391-6979-44D7-9114-44BE0F97B38C}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">

--- a/Test Data/Gallery_Ethernet_AttachedFunctionality_P_Panels.xlsx
+++ b/Test Data/Gallery_Ethernet_AttachedFunctionality_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C742E01-9A9F-4BCA-878A-408D3FE9469D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3659B706-8F03-4AAA-9671-E0367B585285}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="13" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="16" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -27,6 +27,9 @@
     <sheet name="Netherlands" sheetId="18" r:id="rId12"/>
     <sheet name="Austria" sheetId="19" r:id="rId13"/>
     <sheet name="Denmark" sheetId="20" r:id="rId14"/>
+    <sheet name="Russia" sheetId="22" r:id="rId15"/>
+    <sheet name="Finland" sheetId="23" r:id="rId16"/>
+    <sheet name="Hungary" sheetId="24" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="54">
   <si>
     <t>Wg</t>
   </si>
@@ -190,6 +193,24 @@
   </si>
   <si>
     <t>NGC-2913/T2779</t>
+  </si>
+  <si>
+    <t>NGC-2929/T2907/T2898</t>
+  </si>
+  <si>
+    <t>Russia Market</t>
+  </si>
+  <si>
+    <t>NGC-3130/T2884</t>
+  </si>
+  <si>
+    <t>Finland Market</t>
+  </si>
+  <si>
+    <t>NGC-3104/T2976/T2990</t>
+  </si>
+  <si>
+    <t>Hungary Market</t>
   </si>
 </sst>
 </file>
@@ -1281,7 +1302,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605D4391-6979-44D7-9114-44BE0F97B38C}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1392,6 +1413,414 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3A6F4A5-5CF8-43DC-929D-0FEA65D2ECDD}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6DFC6E9-68D9-401A-9C53-240327E274F8}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502D5551-5ED8-458C-B968-8210372A183A}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">

--- a/Test Data/Gallery_Ethernet_AttachedFunctionality_P_Panels.xlsx
+++ b/Test Data/Gallery_Ethernet_AttachedFunctionality_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3659B706-8F03-4AAA-9671-E0367B585285}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCBBAD7-86CE-49C4-BAE6-9BBC6F2C3A91}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="16" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="17" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -30,6 +30,8 @@
     <sheet name="Russia" sheetId="22" r:id="rId15"/>
     <sheet name="Finland" sheetId="23" r:id="rId16"/>
     <sheet name="Hungary" sheetId="24" r:id="rId17"/>
+    <sheet name="Norway" sheetId="25" r:id="rId18"/>
+    <sheet name="Poland" sheetId="26" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="58">
   <si>
     <t>Wg</t>
   </si>
@@ -211,6 +213,18 @@
   </si>
   <si>
     <t>Hungary Market</t>
+  </si>
+  <si>
+    <t>NGC-2931/T3068</t>
+  </si>
+  <si>
+    <t>Norway Market</t>
+  </si>
+  <si>
+    <t>NGC-2920/3034</t>
+  </si>
+  <si>
+    <t>Poland Market</t>
   </si>
 </sst>
 </file>
@@ -1711,7 +1725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502D5551-5ED8-458C-B968-8210372A183A}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D18"/>
     </sheetView>
   </sheetViews>
@@ -1765,6 +1779,278 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F69F1E07-59E7-415D-87F3-78887A09CD84}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C76F6F16-280D-453B-962B-E8477FBA49E7}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>

--- a/Test Data/Gallery_Ethernet_AttachedFunctionality_P_Panels.xlsx
+++ b/Test Data/Gallery_Ethernet_AttachedFunctionality_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCBBAD7-86CE-49C4-BAE6-9BBC6F2C3A91}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DE121E-1224-4C54-ACA2-464970FF135F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="17" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="9" activeTab="19" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <sheet name="Hungary" sheetId="24" r:id="rId17"/>
     <sheet name="Norway" sheetId="25" r:id="rId18"/>
     <sheet name="Poland" sheetId="26" r:id="rId19"/>
+    <sheet name="UK" sheetId="27" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="60">
   <si>
     <t>Wg</t>
   </si>
@@ -225,6 +226,12 @@
   </si>
   <si>
     <t>Poland Market</t>
+  </si>
+  <si>
+    <t>NGC-2741/T3362</t>
+  </si>
+  <si>
+    <t>UK Market</t>
   </si>
 </sst>
 </file>
@@ -1861,7 +1868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F69F1E07-59E7-415D-87F3-78887A09CD84}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -2251,6 +2258,142 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E362F4-3806-44CC-B333-CA04A98FB1CF}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18F4C605-A051-4E3C-9D39-22121CB08E6A}">
   <dimension ref="A1:D15"/>
